--- a/Launches/8-inch-flight/Manufacturing/BOM_Nozzle.xlsx
+++ b/Launches/8-inch-flight/Manufacturing/BOM_Nozzle.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieub\Desktop\Propulsion\Launches\8-inch-flight\Manufacturing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8520"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Nozzle Part</t>
   </si>
@@ -34,16 +42,7 @@
     <t>G330</t>
   </si>
   <si>
-    <t>4.162"x4.162"x1.3"</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Kevin Anderson contacted at </t>
-    </r>
-    <r>
-      <t>KevinA@etm-lb.com</t>
-    </r>
+    <t>Kevin Anderson contacted at KevinA@etm-lb.com</t>
   </si>
   <si>
     <t>http://www.tokaicarbon.co.jp/en/products/fine_carbon/isotropic.html</t>
@@ -70,9 +69,6 @@
     <t>Aluminum 6061-T6</t>
   </si>
   <si>
-    <t>7.5"x7.5"x6.43"</t>
-  </si>
-  <si>
     <t>http://www.mcmaster.com/#aluminum-alloy-6061/=13bz6eb</t>
   </si>
   <si>
@@ -97,9 +93,6 @@
     <t>Aluminum Skirt</t>
   </si>
   <si>
-    <t>7.5"x7.5"x2.8"</t>
-  </si>
-  <si>
     <t>Aluminum Retainer</t>
   </si>
   <si>
@@ -164,54 +157,87 @@
   </si>
   <si>
     <t>Igniters</t>
+  </si>
+  <si>
+    <t>7.5"x7.5"x6.9"</t>
+  </si>
+  <si>
+    <t>7.5"x7.5"x2.5"</t>
+  </si>
+  <si>
+    <t>Phenolic Cap</t>
+  </si>
+  <si>
+    <t>5.26"x5.26"x4.25"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-    </font>
-    <font/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -220,7 +246,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,81 +261,362 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.14"/>
-    <col customWidth="1" min="2" max="2" width="39.71"/>
-    <col customWidth="1" min="3" max="3" width="29.0"/>
-    <col customWidth="1" min="4" max="4" width="78.14"/>
-    <col customWidth="1" min="5" max="5" width="37.0"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="78.109375" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -334,192 +641,204 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -527,14 +846,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" location="garolite/=13byhm6" ref="D3"/>
-    <hyperlink r:id="rId3" location="aluminum-alloy-6061/=13bz6eb" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D9"/>
-    <hyperlink r:id="rId5" ref="D10"/>
-    <hyperlink r:id="rId6" location="standard-dowel-pins/=121yho0" ref="D11"/>
-    <hyperlink r:id="rId7" location="o-rings/=121yjuk" ref="D18"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2" location="garolite/=13byhm6"/>
+    <hyperlink ref="D4" r:id="rId3" location="aluminum-alloy-6061/=13bz6eb"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6" location="standard-dowel-pins/=121yho0"/>
+    <hyperlink ref="D18" r:id="rId7" location="o-rings/=121yjuk"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>